--- a/vs-x64/Scattered successful looukp.xlsx
+++ b/vs-x64/Scattered successful looukp.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.5381089999999999</v>
+        <v>0.442866</v>
       </c>
       <c r="C2" t="n">
-        <v>0.40548</v>
+        <v>0.301374</v>
       </c>
       <c r="D2" t="n">
-        <v>0.525551</v>
+        <v>0.416964</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.562622</v>
+        <v>0.442226</v>
       </c>
       <c r="C3" t="n">
-        <v>0.38204</v>
+        <v>0.306532</v>
       </c>
       <c r="D3" t="n">
-        <v>0.52093</v>
+        <v>0.416726</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.571858</v>
+        <v>0.441733</v>
       </c>
       <c r="C4" t="n">
-        <v>0.398784</v>
+        <v>0.307682</v>
       </c>
       <c r="D4" t="n">
-        <v>0.582591</v>
+        <v>0.416694</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.605975</v>
+        <v>0.441488</v>
       </c>
       <c r="C5" t="n">
-        <v>0.398878</v>
+        <v>0.310472</v>
       </c>
       <c r="D5" t="n">
-        <v>0.535046</v>
+        <v>0.419351</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.541158</v>
+        <v>0.442224</v>
       </c>
       <c r="C6" t="n">
-        <v>0.403754</v>
+        <v>0.309955</v>
       </c>
       <c r="D6" t="n">
-        <v>0.548533</v>
+        <v>0.421566</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.549159</v>
+        <v>0.440549</v>
       </c>
       <c r="C7" t="n">
-        <v>0.425466</v>
+        <v>0.314934</v>
       </c>
       <c r="D7" t="n">
-        <v>0.559229</v>
+        <v>0.425625</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.602718</v>
+        <v>0.442583</v>
       </c>
       <c r="C8" t="n">
-        <v>0.416953</v>
+        <v>0.321046</v>
       </c>
       <c r="D8" t="n">
-        <v>0.546606</v>
+        <v>0.432032</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.5619459999999999</v>
+        <v>0.445452</v>
       </c>
       <c r="C9" t="n">
-        <v>0.394259</v>
+        <v>0.327162</v>
       </c>
       <c r="D9" t="n">
-        <v>0.520914</v>
+        <v>0.410598</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.605745</v>
+        <v>0.4445</v>
       </c>
       <c r="C10" t="n">
-        <v>0.4215</v>
+        <v>0.30958</v>
       </c>
       <c r="D10" t="n">
-        <v>0.516386</v>
+        <v>0.412971</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.5622740000000001</v>
+        <v>0.444805</v>
       </c>
       <c r="C11" t="n">
-        <v>0.444612</v>
+        <v>0.310295</v>
       </c>
       <c r="D11" t="n">
-        <v>0.56358</v>
+        <v>0.413323</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.623493</v>
+        <v>0.444394</v>
       </c>
       <c r="C12" t="n">
-        <v>0.361607</v>
+        <v>0.311035</v>
       </c>
       <c r="D12" t="n">
-        <v>0.517741</v>
+        <v>0.413572</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.611822</v>
+        <v>0.443389</v>
       </c>
       <c r="C13" t="n">
-        <v>0.399519</v>
+        <v>0.313717</v>
       </c>
       <c r="D13" t="n">
-        <v>0.552324</v>
+        <v>0.414892</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.599963</v>
+        <v>0.445179</v>
       </c>
       <c r="C14" t="n">
-        <v>0.392747</v>
+        <v>0.313673</v>
       </c>
       <c r="D14" t="n">
-        <v>0.569686</v>
+        <v>0.413289</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.639534</v>
+        <v>0.443918</v>
       </c>
       <c r="C15" t="n">
-        <v>0.438508</v>
+        <v>0.313433</v>
       </c>
       <c r="D15" t="n">
-        <v>0.548083</v>
+        <v>0.415926</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.657989</v>
+        <v>0.445126</v>
       </c>
       <c r="C16" t="n">
-        <v>0.449293</v>
+        <v>0.312048</v>
       </c>
       <c r="D16" t="n">
-        <v>0.593962</v>
+        <v>0.417224</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.664434</v>
+        <v>0.448534</v>
       </c>
       <c r="C17" t="n">
-        <v>0.452422</v>
+        <v>0.314674</v>
       </c>
       <c r="D17" t="n">
-        <v>0.611269</v>
+        <v>0.420452</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.664199</v>
+        <v>0.44518</v>
       </c>
       <c r="C18" t="n">
-        <v>0.456583</v>
+        <v>0.318384</v>
       </c>
       <c r="D18" t="n">
-        <v>0.641812</v>
+        <v>0.419385</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.634426</v>
+        <v>0.443233</v>
       </c>
       <c r="C19" t="n">
-        <v>0.408119</v>
+        <v>0.320584</v>
       </c>
       <c r="D19" t="n">
-        <v>0.566632</v>
+        <v>0.420063</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.567584</v>
+        <v>0.442579</v>
       </c>
       <c r="C20" t="n">
-        <v>0.400886</v>
+        <v>0.323433</v>
       </c>
       <c r="D20" t="n">
-        <v>0.532541</v>
+        <v>0.421828</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.60805</v>
+        <v>0.446898</v>
       </c>
       <c r="C21" t="n">
-        <v>0.388599</v>
+        <v>0.323579</v>
       </c>
       <c r="D21" t="n">
-        <v>0.578302</v>
+        <v>0.425387</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.61127</v>
+        <v>0.445742</v>
       </c>
       <c r="C22" t="n">
-        <v>0.419614</v>
+        <v>0.326361</v>
       </c>
       <c r="D22" t="n">
-        <v>0.567365</v>
+        <v>0.429589</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.569364</v>
+        <v>0.444235</v>
       </c>
       <c r="C23" t="n">
-        <v>0.434175</v>
+        <v>0.322368</v>
       </c>
       <c r="D23" t="n">
-        <v>0.540813</v>
+        <v>0.412544</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.626479</v>
+        <v>0.447403</v>
       </c>
       <c r="C24" t="n">
-        <v>0.402376</v>
+        <v>0.315553</v>
       </c>
       <c r="D24" t="n">
-        <v>0.512721</v>
+        <v>0.413479</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.618153</v>
+        <v>0.446483</v>
       </c>
       <c r="C25" t="n">
-        <v>0.422101</v>
+        <v>0.312368</v>
       </c>
       <c r="D25" t="n">
-        <v>0.504974</v>
+        <v>0.416653</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.639336</v>
+        <v>0.448415</v>
       </c>
       <c r="C26" t="n">
-        <v>0.395652</v>
+        <v>0.31859</v>
       </c>
       <c r="D26" t="n">
-        <v>0.5399</v>
+        <v>0.412703</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.581639</v>
+        <v>0.446614</v>
       </c>
       <c r="C27" t="n">
-        <v>0.401976</v>
+        <v>0.318012</v>
       </c>
       <c r="D27" t="n">
-        <v>0.518752</v>
+        <v>0.417121</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.586541</v>
+        <v>0.449057</v>
       </c>
       <c r="C28" t="n">
-        <v>0.424836</v>
+        <v>0.320584</v>
       </c>
       <c r="D28" t="n">
-        <v>0.575383</v>
+        <v>0.416929</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.575464</v>
+        <v>0.448312</v>
       </c>
       <c r="C29" t="n">
-        <v>0.396426</v>
+        <v>0.313127</v>
       </c>
       <c r="D29" t="n">
-        <v>0.572224</v>
+        <v>0.416103</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.645274</v>
+        <v>0.4475</v>
       </c>
       <c r="C30" t="n">
-        <v>0.486381</v>
+        <v>0.320451</v>
       </c>
       <c r="D30" t="n">
-        <v>0.513062</v>
+        <v>0.41783</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.685546</v>
+        <v>0.449041</v>
       </c>
       <c r="C31" t="n">
-        <v>0.481176</v>
+        <v>0.318412</v>
       </c>
       <c r="D31" t="n">
-        <v>0.548824</v>
+        <v>0.418688</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.582284</v>
+        <v>0.448663</v>
       </c>
       <c r="C32" t="n">
-        <v>0.402643</v>
+        <v>0.315398</v>
       </c>
       <c r="D32" t="n">
-        <v>0.53004</v>
+        <v>0.420253</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.60904</v>
+        <v>0.450262</v>
       </c>
       <c r="C33" t="n">
-        <v>0.424221</v>
+        <v>0.326173</v>
       </c>
       <c r="D33" t="n">
-        <v>0.525899</v>
+        <v>0.420094</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.621155</v>
+        <v>0.450165</v>
       </c>
       <c r="C34" t="n">
-        <v>0.433604</v>
+        <v>0.323303</v>
       </c>
       <c r="D34" t="n">
-        <v>0.570375</v>
+        <v>0.424725</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.596973</v>
+        <v>0.446807</v>
       </c>
       <c r="C35" t="n">
-        <v>0.456675</v>
+        <v>0.32387</v>
       </c>
       <c r="D35" t="n">
-        <v>0.536794</v>
+        <v>0.430363</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.5706059999999999</v>
+        <v>0.449135</v>
       </c>
       <c r="C36" t="n">
-        <v>0.449102</v>
+        <v>0.332448</v>
       </c>
       <c r="D36" t="n">
-        <v>0.60764</v>
+        <v>0.430736</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.618314</v>
+        <v>0.453334</v>
       </c>
       <c r="C37" t="n">
-        <v>0.49243</v>
+        <v>0.343705</v>
       </c>
       <c r="D37" t="n">
-        <v>0.589301</v>
+        <v>0.418587</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.617545</v>
+        <v>0.465584</v>
       </c>
       <c r="C38" t="n">
-        <v>0.398241</v>
+        <v>0.344074</v>
       </c>
       <c r="D38" t="n">
-        <v>0.501548</v>
+        <v>0.417503</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.556646</v>
+        <v>0.464743</v>
       </c>
       <c r="C39" t="n">
-        <v>0.430836</v>
+        <v>0.345427</v>
       </c>
       <c r="D39" t="n">
-        <v>0.565226</v>
+        <v>0.419069</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.562254</v>
+        <v>0.46337</v>
       </c>
       <c r="C40" t="n">
-        <v>0.443324</v>
+        <v>0.344704</v>
       </c>
       <c r="D40" t="n">
-        <v>0.548405</v>
+        <v>0.423099</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.584519</v>
+        <v>0.464062</v>
       </c>
       <c r="C41" t="n">
-        <v>0.493916</v>
+        <v>0.348339</v>
       </c>
       <c r="D41" t="n">
-        <v>0.508257</v>
+        <v>0.422566</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.561372</v>
+        <v>0.46567</v>
       </c>
       <c r="C42" t="n">
-        <v>0.517479</v>
+        <v>0.348158</v>
       </c>
       <c r="D42" t="n">
-        <v>0.558489</v>
+        <v>0.422787</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.623399</v>
+        <v>0.465997</v>
       </c>
       <c r="C43" t="n">
-        <v>0.520351</v>
+        <v>0.351817</v>
       </c>
       <c r="D43" t="n">
-        <v>0.558512</v>
+        <v>0.423133</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.581945</v>
+        <v>0.466082</v>
       </c>
       <c r="C44" t="n">
-        <v>0.463371</v>
+        <v>0.351854</v>
       </c>
       <c r="D44" t="n">
-        <v>0.590573</v>
+        <v>0.425514</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.674609</v>
+        <v>0.465931</v>
       </c>
       <c r="C45" t="n">
-        <v>0.478474</v>
+        <v>0.354341</v>
       </c>
       <c r="D45" t="n">
-        <v>0.552894</v>
+        <v>0.423622</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.590101</v>
+        <v>0.466303</v>
       </c>
       <c r="C46" t="n">
-        <v>0.468451</v>
+        <v>0.355068</v>
       </c>
       <c r="D46" t="n">
-        <v>0.583189</v>
+        <v>0.426045</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.581062</v>
+        <v>0.468832</v>
       </c>
       <c r="C47" t="n">
-        <v>0.482707</v>
+        <v>0.358116</v>
       </c>
       <c r="D47" t="n">
-        <v>0.536683</v>
+        <v>0.427299</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.568542</v>
+        <v>0.464584</v>
       </c>
       <c r="C48" t="n">
-        <v>0.437805</v>
+        <v>0.359495</v>
       </c>
       <c r="D48" t="n">
-        <v>0.530672</v>
+        <v>0.430784</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.576434</v>
+        <v>0.467069</v>
       </c>
       <c r="C49" t="n">
-        <v>0.5108510000000001</v>
+        <v>0.359653</v>
       </c>
       <c r="D49" t="n">
-        <v>0.552015</v>
+        <v>0.430306</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.559215</v>
+        <v>0.469066</v>
       </c>
       <c r="C50" t="n">
-        <v>0.480441</v>
+        <v>0.358356</v>
       </c>
       <c r="D50" t="n">
-        <v>0.5904740000000001</v>
+        <v>0.439085</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.566279</v>
+        <v>0.471293</v>
       </c>
       <c r="C51" t="n">
-        <v>0.425846</v>
+        <v>0.368454</v>
       </c>
       <c r="D51" t="n">
-        <v>0.542152</v>
+        <v>0.450564</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.5664400000000001</v>
+        <v>0.471594</v>
       </c>
       <c r="C52" t="n">
-        <v>0.445768</v>
+        <v>0.367273</v>
       </c>
       <c r="D52" t="n">
-        <v>0.58652</v>
+        <v>0.45526</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.719449</v>
+        <v>0.529914</v>
       </c>
       <c r="C53" t="n">
-        <v>0.62392</v>
+        <v>0.431403</v>
       </c>
       <c r="D53" t="n">
-        <v>0.5429659999999999</v>
+        <v>0.458008</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.625777</v>
+        <v>0.517724</v>
       </c>
       <c r="C54" t="n">
-        <v>0.496181</v>
+        <v>0.418912</v>
       </c>
       <c r="D54" t="n">
-        <v>0.554763</v>
+        <v>0.457362</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.6272799999999999</v>
+        <v>0.521634</v>
       </c>
       <c r="C55" t="n">
-        <v>0.513398</v>
+        <v>0.429314</v>
       </c>
       <c r="D55" t="n">
-        <v>0.571704</v>
+        <v>0.459338</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.80031</v>
+        <v>0.5199</v>
       </c>
       <c r="C56" t="n">
-        <v>0.610074</v>
+        <v>0.434569</v>
       </c>
       <c r="D56" t="n">
-        <v>0.631548</v>
+        <v>0.459019</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.727566</v>
+        <v>0.531453</v>
       </c>
       <c r="C57" t="n">
-        <v>0.594129</v>
+        <v>0.438898</v>
       </c>
       <c r="D57" t="n">
-        <v>0.572594</v>
+        <v>0.466371</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.712032</v>
+        <v>0.525637</v>
       </c>
       <c r="C58" t="n">
-        <v>0.605523</v>
+        <v>0.442034</v>
       </c>
       <c r="D58" t="n">
-        <v>0.581734</v>
+        <v>0.472765</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.628143</v>
+        <v>0.531637</v>
       </c>
       <c r="C59" t="n">
-        <v>0.533458</v>
+        <v>0.439335</v>
       </c>
       <c r="D59" t="n">
-        <v>0.5735130000000001</v>
+        <v>0.467797</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.646126</v>
+        <v>0.524864</v>
       </c>
       <c r="C60" t="n">
-        <v>0.524455</v>
+        <v>0.444103</v>
       </c>
       <c r="D60" t="n">
-        <v>0.591486</v>
+        <v>0.472816</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.676674</v>
+        <v>0.523625</v>
       </c>
       <c r="C61" t="n">
-        <v>0.564375</v>
+        <v>0.450909</v>
       </c>
       <c r="D61" t="n">
-        <v>0.568918</v>
+        <v>0.473065</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.640006</v>
+        <v>0.531037</v>
       </c>
       <c r="C62" t="n">
-        <v>0.607636</v>
+        <v>0.441662</v>
       </c>
       <c r="D62" t="n">
-        <v>0.562622</v>
+        <v>0.46281</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.660631</v>
+        <v>0.519579</v>
       </c>
       <c r="C63" t="n">
-        <v>0.5358309999999999</v>
+        <v>0.450313</v>
       </c>
       <c r="D63" t="n">
-        <v>0.566439</v>
+        <v>0.485523</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.6235579999999999</v>
+        <v>0.511807</v>
       </c>
       <c r="C64" t="n">
-        <v>0.607697</v>
+        <v>0.443663</v>
       </c>
       <c r="D64" t="n">
-        <v>0.6605569999999999</v>
+        <v>0.476799</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.626687</v>
+        <v>0.526483</v>
       </c>
       <c r="C65" t="n">
-        <v>0.537391</v>
+        <v>0.457643</v>
       </c>
       <c r="D65" t="n">
-        <v>0.619847</v>
+        <v>0.492519</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.65666</v>
+        <v>0.532081</v>
       </c>
       <c r="C66" t="n">
-        <v>0.540371</v>
+        <v>0.469962</v>
       </c>
       <c r="D66" t="n">
-        <v>0.599064</v>
+        <v>0.520035</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.70916</v>
+        <v>0.629609</v>
       </c>
       <c r="C67" t="n">
-        <v>0.595253</v>
+        <v>0.5147080000000001</v>
       </c>
       <c r="D67" t="n">
-        <v>0.606008</v>
+        <v>0.5117699999999999</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.732978</v>
+        <v>0.59063</v>
       </c>
       <c r="C68" t="n">
-        <v>0.65117</v>
+        <v>0.488212</v>
       </c>
       <c r="D68" t="n">
-        <v>0.720681</v>
+        <v>0.510367</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.705376</v>
+        <v>0.610867</v>
       </c>
       <c r="C69" t="n">
-        <v>0.594332</v>
+        <v>0.5019130000000001</v>
       </c>
       <c r="D69" t="n">
-        <v>0.620514</v>
+        <v>0.503825</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.852902</v>
+        <v>0.605463</v>
       </c>
       <c r="C70" t="n">
-        <v>0.617248</v>
+        <v>0.505151</v>
       </c>
       <c r="D70" t="n">
-        <v>0.604974</v>
+        <v>0.524504</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.688124</v>
+        <v>0.601532</v>
       </c>
       <c r="C71" t="n">
-        <v>0.5838449999999999</v>
+        <v>0.5154840000000001</v>
       </c>
       <c r="D71" t="n">
-        <v>0.592202</v>
+        <v>0.514608</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.691713</v>
+        <v>0.581054</v>
       </c>
       <c r="C72" t="n">
-        <v>0.5961109999999999</v>
+        <v>0.515425</v>
       </c>
       <c r="D72" t="n">
-        <v>0.623737</v>
+        <v>0.517687</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.7688469999999999</v>
+        <v>0.636176</v>
       </c>
       <c r="C73" t="n">
-        <v>0.731923</v>
+        <v>0.51901</v>
       </c>
       <c r="D73" t="n">
-        <v>0.704657</v>
+        <v>0.5379</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.711302</v>
+        <v>0.641509</v>
       </c>
       <c r="C74" t="n">
-        <v>0.694017</v>
+        <v>0.522787</v>
       </c>
       <c r="D74" t="n">
-        <v>0.740035</v>
+        <v>0.53604</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.932047</v>
+        <v>0.59928</v>
       </c>
       <c r="C75" t="n">
-        <v>0.702494</v>
+        <v>0.553378</v>
       </c>
       <c r="D75" t="n">
-        <v>0.647549</v>
+        <v>0.555802</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.922574</v>
+        <v>0.670776</v>
       </c>
       <c r="C76" t="n">
-        <v>0.721148</v>
+        <v>0.573263</v>
       </c>
       <c r="D76" t="n">
-        <v>0.66922</v>
+        <v>0.5686099999999999</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.93956</v>
+        <v>0.670259</v>
       </c>
       <c r="C77" t="n">
-        <v>0.69741</v>
+        <v>0.552472</v>
       </c>
       <c r="D77" t="n">
-        <v>0.764803</v>
+        <v>0.586707</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.892818</v>
+        <v>0.633836</v>
       </c>
       <c r="C78" t="n">
-        <v>0.809113</v>
+        <v>0.571878</v>
       </c>
       <c r="D78" t="n">
-        <v>0.738555</v>
+        <v>0.607946</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.91074</v>
+        <v>0.690036</v>
       </c>
       <c r="C79" t="n">
-        <v>0.863665</v>
+        <v>0.605818</v>
       </c>
       <c r="D79" t="n">
-        <v>0.778822</v>
+        <v>0.589108</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.949653</v>
+        <v>0.644171</v>
       </c>
       <c r="C80" t="n">
-        <v>0.800982</v>
+        <v>0.552724</v>
       </c>
       <c r="D80" t="n">
-        <v>1.11293</v>
+        <v>0.639171</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>1.52399</v>
+        <v>1.0336</v>
       </c>
       <c r="C81" t="n">
-        <v>1.13261</v>
+        <v>0.721498</v>
       </c>
       <c r="D81" t="n">
-        <v>1.06488</v>
+        <v>0.706481</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>1.44481</v>
+        <v>0.901293</v>
       </c>
       <c r="C82" t="n">
-        <v>1.09291</v>
+        <v>0.688739</v>
       </c>
       <c r="D82" t="n">
-        <v>1.12109</v>
+        <v>0.68689</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>1.64749</v>
+        <v>1.11386</v>
       </c>
       <c r="C83" t="n">
-        <v>1.41205</v>
+        <v>0.794122</v>
       </c>
       <c r="D83" t="n">
-        <v>1.26519</v>
+        <v>0.733324</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>1.56398</v>
+        <v>1.04079</v>
       </c>
       <c r="C84" t="n">
-        <v>1.11878</v>
+        <v>0.810935</v>
       </c>
       <c r="D84" t="n">
-        <v>1.03125</v>
+        <v>0.851893</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>1.59457</v>
+        <v>1.15588</v>
       </c>
       <c r="C85" t="n">
-        <v>1.09113</v>
+        <v>0.822362</v>
       </c>
       <c r="D85" t="n">
-        <v>1.11312</v>
+        <v>0.789426</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>1.405</v>
+        <v>1.21996</v>
       </c>
       <c r="C86" t="n">
-        <v>1.28729</v>
+        <v>0.815653</v>
       </c>
       <c r="D86" t="n">
-        <v>1.10504</v>
+        <v>0.745664</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>1.56236</v>
+        <v>1.11084</v>
       </c>
       <c r="C87" t="n">
-        <v>1.1326</v>
+        <v>0.891167</v>
       </c>
       <c r="D87" t="n">
-        <v>1.10466</v>
+        <v>0.810077</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>1.5496</v>
+        <v>0.948864</v>
       </c>
       <c r="C88" t="n">
-        <v>0.891811</v>
+        <v>0.740178</v>
       </c>
       <c r="D88" t="n">
-        <v>0.90689</v>
+        <v>0.837721</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>1.42679</v>
+        <v>1.07977</v>
       </c>
       <c r="C89" t="n">
-        <v>0.990397</v>
+        <v>0.711878</v>
       </c>
       <c r="D89" t="n">
-        <v>0.860985</v>
+        <v>0.784712</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>1.52661</v>
+        <v>1.08645</v>
       </c>
       <c r="C90" t="n">
-        <v>0.975846</v>
+        <v>0.753037</v>
       </c>
       <c r="D90" t="n">
-        <v>0.944042</v>
+        <v>0.767423</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>1.42426</v>
+        <v>1.02488</v>
       </c>
       <c r="C91" t="n">
-        <v>0.970132</v>
+        <v>0.815859</v>
       </c>
       <c r="D91" t="n">
-        <v>1.09818</v>
+        <v>0.7839699999999999</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>1.84558</v>
+        <v>1.1432</v>
       </c>
       <c r="C92" t="n">
-        <v>1.16181</v>
+        <v>0.807982</v>
       </c>
       <c r="D92" t="n">
-        <v>1.09726</v>
+        <v>0.79191</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>1.5528</v>
+        <v>1.03477</v>
       </c>
       <c r="C93" t="n">
-        <v>1.01821</v>
+        <v>0.805748</v>
       </c>
       <c r="D93" t="n">
-        <v>1.06191</v>
+        <v>0.8080079999999999</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>1.58806</v>
+        <v>1.07101</v>
       </c>
       <c r="C94" t="n">
-        <v>1.11347</v>
+        <v>0.789802</v>
       </c>
       <c r="D94" t="n">
-        <v>1.45339</v>
+        <v>1.16339</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>2.11766</v>
+        <v>1.47263</v>
       </c>
       <c r="C95" t="n">
-        <v>1.58447</v>
+        <v>1.19433</v>
       </c>
       <c r="D95" t="n">
-        <v>1.43067</v>
+        <v>0.994488</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>2.08628</v>
+        <v>1.38988</v>
       </c>
       <c r="C96" t="n">
-        <v>1.3113</v>
+        <v>1.03312</v>
       </c>
       <c r="D96" t="n">
-        <v>1.22572</v>
+        <v>0.860654</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>1.86561</v>
+        <v>1.23424</v>
       </c>
       <c r="C97" t="n">
-        <v>1.26606</v>
+        <v>0.852247</v>
       </c>
       <c r="D97" t="n">
-        <v>1.2543</v>
+        <v>0.92025</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>1.91254</v>
+        <v>1.24236</v>
       </c>
       <c r="C98" t="n">
-        <v>1.12053</v>
+        <v>0.8142160000000001</v>
       </c>
       <c r="D98" t="n">
-        <v>1.27277</v>
+        <v>0.82633</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>1.63847</v>
+        <v>1.12497</v>
       </c>
       <c r="C99" t="n">
-        <v>1.20744</v>
+        <v>0.899142</v>
       </c>
       <c r="D99" t="n">
-        <v>1.13122</v>
+        <v>0.8544040000000001</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>1.70301</v>
+        <v>1.3087</v>
       </c>
       <c r="C100" t="n">
-        <v>1.19519</v>
+        <v>1.05363</v>
       </c>
       <c r="D100" t="n">
-        <v>1.12762</v>
+        <v>0.976472</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>1.55803</v>
+        <v>1.22234</v>
       </c>
       <c r="C101" t="n">
-        <v>1.26981</v>
+        <v>0.981681</v>
       </c>
       <c r="D101" t="n">
-        <v>1.21218</v>
+        <v>1.11135</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>1.83979</v>
+        <v>1.34938</v>
       </c>
       <c r="C102" t="n">
-        <v>1.21612</v>
+        <v>0.990999</v>
       </c>
       <c r="D102" t="n">
-        <v>1.05774</v>
+        <v>0.960966</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>1.52055</v>
+        <v>1.38041</v>
       </c>
       <c r="C103" t="n">
-        <v>1.14918</v>
+        <v>1.01103</v>
       </c>
       <c r="D103" t="n">
-        <v>1.1948</v>
+        <v>0.973335</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>1.78285</v>
+        <v>1.43223</v>
       </c>
       <c r="C104" t="n">
-        <v>1.23945</v>
+        <v>1.19716</v>
       </c>
       <c r="D104" t="n">
-        <v>1.31563</v>
+        <v>0.9525439999999999</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4690,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>1.73318</v>
+        <v>1.30464</v>
       </c>
       <c r="C105" t="n">
-        <v>1.40461</v>
+        <v>0.852676</v>
       </c>
       <c r="D105" t="n">
-        <v>1.42961</v>
+        <v>0.976349</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>1.71838</v>
+        <v>1.47858</v>
       </c>
       <c r="C106" t="n">
-        <v>1.35869</v>
+        <v>1.14184</v>
       </c>
       <c r="D106" t="n">
-        <v>1.10836</v>
+        <v>1.09774</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4718,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>1.52975</v>
+        <v>1.36213</v>
       </c>
       <c r="C107" t="n">
-        <v>1.33625</v>
+        <v>0.9826510000000001</v>
       </c>
       <c r="D107" t="n">
-        <v>1.54775</v>
+        <v>1.02446</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4732,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>1.89368</v>
+        <v>1.36432</v>
       </c>
       <c r="C108" t="n">
-        <v>1.60055</v>
+        <v>0.962769</v>
       </c>
       <c r="D108" t="n">
-        <v>1.85708</v>
+        <v>1.32087</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4746,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>1.66408</v>
+        <v>1.27377</v>
       </c>
       <c r="C109" t="n">
-        <v>1.25385</v>
+        <v>0.931006</v>
       </c>
       <c r="D109" t="n">
-        <v>1.50755</v>
+        <v>1.26004</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4760,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>2.17483</v>
+        <v>1.67244</v>
       </c>
       <c r="C110" t="n">
-        <v>1.58443</v>
+        <v>1.41309</v>
       </c>
       <c r="D110" t="n">
-        <v>1.5706</v>
+        <v>1.44702</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4774,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>2.27583</v>
+        <v>1.80909</v>
       </c>
       <c r="C111" t="n">
-        <v>1.76732</v>
+        <v>1.27972</v>
       </c>
       <c r="D111" t="n">
-        <v>1.63638</v>
+        <v>1.29649</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4788,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>2.27586</v>
+        <v>1.8189</v>
       </c>
       <c r="C112" t="n">
-        <v>1.66766</v>
+        <v>1.38197</v>
       </c>
       <c r="D112" t="n">
-        <v>1.65209</v>
+        <v>1.34454</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4802,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>2.68422</v>
+        <v>1.70915</v>
       </c>
       <c r="C113" t="n">
-        <v>1.90715</v>
+        <v>1.4169</v>
       </c>
       <c r="D113" t="n">
-        <v>1.8706</v>
+        <v>1.44869</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4816,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>2.59628</v>
+        <v>1.94593</v>
       </c>
       <c r="C114" t="n">
-        <v>1.92832</v>
+        <v>1.47297</v>
       </c>
       <c r="D114" t="n">
-        <v>1.98134</v>
+        <v>1.49371</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4830,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>2.70979</v>
+        <v>1.77993</v>
       </c>
       <c r="C115" t="n">
-        <v>2.01656</v>
+        <v>1.38836</v>
       </c>
       <c r="D115" t="n">
-        <v>1.89442</v>
+        <v>1.43488</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4844,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>2.45272</v>
+        <v>1.74594</v>
       </c>
       <c r="C116" t="n">
-        <v>1.91819</v>
+        <v>1.40836</v>
       </c>
       <c r="D116" t="n">
-        <v>1.8248</v>
+        <v>1.38186</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4858,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>2.5172</v>
+        <v>1.74157</v>
       </c>
       <c r="C117" t="n">
-        <v>1.98328</v>
+        <v>1.49231</v>
       </c>
       <c r="D117" t="n">
-        <v>1.97259</v>
+        <v>1.48312</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4872,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>2.38837</v>
+        <v>1.83702</v>
       </c>
       <c r="C118" t="n">
-        <v>1.82616</v>
+        <v>1.43901</v>
       </c>
       <c r="D118" t="n">
-        <v>1.81503</v>
+        <v>1.40771</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4886,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>2.40371</v>
+        <v>1.85374</v>
       </c>
       <c r="C119" t="n">
-        <v>1.83991</v>
+        <v>1.49915</v>
       </c>
       <c r="D119" t="n">
-        <v>1.89858</v>
+        <v>1.33863</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4900,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>2.48706</v>
+        <v>1.60644</v>
       </c>
       <c r="C120" t="n">
-        <v>1.98941</v>
+        <v>1.45921</v>
       </c>
       <c r="D120" t="n">
-        <v>1.91614</v>
+        <v>1.40599</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4914,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>2.56616</v>
+        <v>1.75515</v>
       </c>
       <c r="C121" t="n">
-        <v>1.97818</v>
+        <v>1.40975</v>
       </c>
       <c r="D121" t="n">
-        <v>1.95565</v>
+        <v>1.37065</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4928,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>2.35748</v>
+        <v>1.613</v>
       </c>
       <c r="C122" t="n">
-        <v>2.08956</v>
+        <v>1.44116</v>
       </c>
       <c r="D122" t="n">
-        <v>1.90131</v>
+        <v>1.38012</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4942,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>2.41703</v>
+        <v>1.79738</v>
       </c>
       <c r="C123" t="n">
-        <v>2.07614</v>
+        <v>1.494</v>
       </c>
       <c r="D123" t="n">
-        <v>2.1136</v>
+        <v>1.52762</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4956,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>2.86429</v>
+        <v>2.0667</v>
       </c>
       <c r="C124" t="n">
-        <v>2.15779</v>
+        <v>1.56114</v>
       </c>
       <c r="D124" t="n">
-        <v>2.05437</v>
+        <v>1.53282</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4970,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>2.77778</v>
+        <v>2.15654</v>
       </c>
       <c r="C125" t="n">
-        <v>2.05811</v>
+        <v>1.51892</v>
       </c>
       <c r="D125" t="n">
-        <v>2.01887</v>
+        <v>1.50539</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4984,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>2.81931</v>
+        <v>2.1016</v>
       </c>
       <c r="C126" t="n">
-        <v>2.04682</v>
+        <v>1.53913</v>
       </c>
       <c r="D126" t="n">
-        <v>2.10152</v>
+        <v>1.5286</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4998,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>2.95766</v>
+        <v>2.04007</v>
       </c>
       <c r="C127" t="n">
-        <v>1.93017</v>
+        <v>1.48765</v>
       </c>
       <c r="D127" t="n">
-        <v>1.95763</v>
+        <v>1.41485</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5012,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>2.67666</v>
+        <v>1.9694</v>
       </c>
       <c r="C128" t="n">
-        <v>1.94478</v>
+        <v>1.62426</v>
       </c>
       <c r="D128" t="n">
-        <v>1.96619</v>
+        <v>1.56525</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5026,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>2.55799</v>
+        <v>1.91383</v>
       </c>
       <c r="C129" t="n">
-        <v>2.05035</v>
+        <v>1.47779</v>
       </c>
       <c r="D129" t="n">
-        <v>1.92868</v>
+        <v>1.61635</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5040,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>2.62364</v>
+        <v>2.12536</v>
       </c>
       <c r="C130" t="n">
-        <v>2.04783</v>
+        <v>1.69039</v>
       </c>
       <c r="D130" t="n">
-        <v>1.97571</v>
+        <v>1.53785</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5054,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>2.57549</v>
+        <v>2.14749</v>
       </c>
       <c r="C131" t="n">
-        <v>1.8734</v>
+        <v>1.6588</v>
       </c>
       <c r="D131" t="n">
-        <v>2.08836</v>
+        <v>1.63848</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5068,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>2.69977</v>
+        <v>2.09255</v>
       </c>
       <c r="C132" t="n">
-        <v>2.07911</v>
+        <v>1.6882</v>
       </c>
       <c r="D132" t="n">
-        <v>2.03165</v>
+        <v>1.66942</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5082,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>2.59827</v>
+        <v>2.0659</v>
       </c>
       <c r="C133" t="n">
-        <v>2.21158</v>
+        <v>1.65837</v>
       </c>
       <c r="D133" t="n">
-        <v>2.14326</v>
+        <v>1.66319</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5096,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>2.78972</v>
+        <v>2.16801</v>
       </c>
       <c r="C134" t="n">
-        <v>1.93353</v>
+        <v>1.70005</v>
       </c>
       <c r="D134" t="n">
-        <v>1.94445</v>
+        <v>1.70113</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5110,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>2.56355</v>
+        <v>2.16596</v>
       </c>
       <c r="C135" t="n">
-        <v>2.23364</v>
+        <v>1.70109</v>
       </c>
       <c r="D135" t="n">
-        <v>2.14957</v>
+        <v>1.60507</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5124,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>2.71996</v>
+        <v>1.97251</v>
       </c>
       <c r="C136" t="n">
-        <v>2.22895</v>
+        <v>1.6373</v>
       </c>
       <c r="D136" t="n">
-        <v>2.13898</v>
+        <v>1.6861</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5138,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>2.68277</v>
+        <v>2.10601</v>
       </c>
       <c r="C137" t="n">
-        <v>1.97831</v>
+        <v>1.71516</v>
       </c>
       <c r="D137" t="n">
-        <v>1.98983</v>
+        <v>1.68919</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5152,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>2.98259</v>
+        <v>2.44398</v>
       </c>
       <c r="C138" t="n">
-        <v>2.12974</v>
+        <v>1.72727</v>
       </c>
       <c r="D138" t="n">
-        <v>1.98407</v>
+        <v>1.75185</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5166,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>2.84995</v>
+        <v>2.42509</v>
       </c>
       <c r="C139" t="n">
-        <v>1.99669</v>
+        <v>1.74791</v>
       </c>
       <c r="D139" t="n">
-        <v>2.08549</v>
+        <v>1.72216</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5180,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>2.9586</v>
+        <v>2.38068</v>
       </c>
       <c r="C140" t="n">
-        <v>2.23667</v>
+        <v>1.75101</v>
       </c>
       <c r="D140" t="n">
-        <v>2.20756</v>
+        <v>1.68498</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5194,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>3.09255</v>
+        <v>2.42836</v>
       </c>
       <c r="C141" t="n">
-        <v>2.45192</v>
+        <v>1.78136</v>
       </c>
       <c r="D141" t="n">
-        <v>2.23013</v>
+        <v>1.75505</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5208,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>3.3576</v>
+        <v>2.43408</v>
       </c>
       <c r="C142" t="n">
-        <v>2.36825</v>
+        <v>1.7567</v>
       </c>
       <c r="D142" t="n">
-        <v>2.27748</v>
+        <v>1.74829</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5222,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>3.00235</v>
+        <v>2.42118</v>
       </c>
       <c r="C143" t="n">
-        <v>2.23253</v>
+        <v>1.77584</v>
       </c>
       <c r="D143" t="n">
-        <v>2.26406</v>
+        <v>1.79765</v>
       </c>
     </row>
   </sheetData>

--- a/vs-x64/Scattered successful looukp.xlsx
+++ b/vs-x64/Scattered successful looukp.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.442866</v>
+        <v>0.393996</v>
       </c>
       <c r="C2" t="n">
-        <v>0.301374</v>
+        <v>0.352246</v>
       </c>
       <c r="D2" t="n">
-        <v>0.416964</v>
+        <v>0.345471</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.442226</v>
+        <v>0.405526</v>
       </c>
       <c r="C3" t="n">
-        <v>0.306532</v>
+        <v>0.349378</v>
       </c>
       <c r="D3" t="n">
-        <v>0.416726</v>
+        <v>0.344169</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.441733</v>
+        <v>0.389589</v>
       </c>
       <c r="C4" t="n">
-        <v>0.307682</v>
+        <v>0.346113</v>
       </c>
       <c r="D4" t="n">
-        <v>0.416694</v>
+        <v>0.336948</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.441488</v>
+        <v>0.384558</v>
       </c>
       <c r="C5" t="n">
-        <v>0.310472</v>
+        <v>0.346123</v>
       </c>
       <c r="D5" t="n">
-        <v>0.419351</v>
+        <v>0.334669</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.442224</v>
+        <v>0.389317</v>
       </c>
       <c r="C6" t="n">
-        <v>0.309955</v>
+        <v>0.347505</v>
       </c>
       <c r="D6" t="n">
-        <v>0.421566</v>
+        <v>0.346121</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.440549</v>
+        <v>0.391853</v>
       </c>
       <c r="C7" t="n">
-        <v>0.314934</v>
+        <v>0.360052</v>
       </c>
       <c r="D7" t="n">
-        <v>0.425625</v>
+        <v>0.350491</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.442583</v>
+        <v>0.40577</v>
       </c>
       <c r="C8" t="n">
-        <v>0.321046</v>
+        <v>0.3559</v>
       </c>
       <c r="D8" t="n">
-        <v>0.432032</v>
+        <v>0.357722</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.445452</v>
+        <v>0.405008</v>
       </c>
       <c r="C9" t="n">
-        <v>0.327162</v>
+        <v>0.369085</v>
       </c>
       <c r="D9" t="n">
-        <v>0.410598</v>
+        <v>0.330813</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.4445</v>
+        <v>0.394776</v>
       </c>
       <c r="C10" t="n">
-        <v>0.30958</v>
+        <v>0.334521</v>
       </c>
       <c r="D10" t="n">
-        <v>0.412971</v>
+        <v>0.336737</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.444805</v>
+        <v>0.40251</v>
       </c>
       <c r="C11" t="n">
-        <v>0.310295</v>
+        <v>0.343406</v>
       </c>
       <c r="D11" t="n">
-        <v>0.413323</v>
+        <v>0.337398</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.444394</v>
+        <v>0.397029</v>
       </c>
       <c r="C12" t="n">
-        <v>0.311035</v>
+        <v>0.348469</v>
       </c>
       <c r="D12" t="n">
-        <v>0.413572</v>
+        <v>0.332246</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.443389</v>
+        <v>0.390509</v>
       </c>
       <c r="C13" t="n">
-        <v>0.313717</v>
+        <v>0.33221</v>
       </c>
       <c r="D13" t="n">
-        <v>0.414892</v>
+        <v>0.338655</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.445179</v>
+        <v>0.390656</v>
       </c>
       <c r="C14" t="n">
-        <v>0.313673</v>
+        <v>0.339032</v>
       </c>
       <c r="D14" t="n">
-        <v>0.413289</v>
+        <v>0.330933</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.443918</v>
+        <v>0.389316</v>
       </c>
       <c r="C15" t="n">
-        <v>0.313433</v>
+        <v>0.348958</v>
       </c>
       <c r="D15" t="n">
-        <v>0.415926</v>
+        <v>0.34462</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.445126</v>
+        <v>0.391977</v>
       </c>
       <c r="C16" t="n">
-        <v>0.312048</v>
+        <v>0.342749</v>
       </c>
       <c r="D16" t="n">
-        <v>0.417224</v>
+        <v>0.332391</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.448534</v>
+        <v>0.392296</v>
       </c>
       <c r="C17" t="n">
-        <v>0.314674</v>
+        <v>0.346852</v>
       </c>
       <c r="D17" t="n">
-        <v>0.420452</v>
+        <v>0.338926</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.44518</v>
+        <v>0.394925</v>
       </c>
       <c r="C18" t="n">
-        <v>0.318384</v>
+        <v>0.343672</v>
       </c>
       <c r="D18" t="n">
-        <v>0.419385</v>
+        <v>0.341533</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.443233</v>
+        <v>0.39479</v>
       </c>
       <c r="C19" t="n">
-        <v>0.320584</v>
+        <v>0.355164</v>
       </c>
       <c r="D19" t="n">
-        <v>0.420063</v>
+        <v>0.334104</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.442579</v>
+        <v>0.405203</v>
       </c>
       <c r="C20" t="n">
-        <v>0.323433</v>
+        <v>0.345133</v>
       </c>
       <c r="D20" t="n">
-        <v>0.421828</v>
+        <v>0.360758</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.446898</v>
+        <v>0.393244</v>
       </c>
       <c r="C21" t="n">
-        <v>0.323579</v>
+        <v>0.350742</v>
       </c>
       <c r="D21" t="n">
-        <v>0.425387</v>
+        <v>0.359186</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.445742</v>
+        <v>0.402729</v>
       </c>
       <c r="C22" t="n">
-        <v>0.326361</v>
+        <v>0.35546</v>
       </c>
       <c r="D22" t="n">
-        <v>0.429589</v>
+        <v>0.350987</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.444235</v>
+        <v>0.407108</v>
       </c>
       <c r="C23" t="n">
-        <v>0.322368</v>
+        <v>0.365419</v>
       </c>
       <c r="D23" t="n">
-        <v>0.412544</v>
+        <v>0.34923</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.447403</v>
+        <v>0.409422</v>
       </c>
       <c r="C24" t="n">
-        <v>0.315553</v>
+        <v>0.342705</v>
       </c>
       <c r="D24" t="n">
-        <v>0.413479</v>
+        <v>0.338655</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.446483</v>
+        <v>0.421267</v>
       </c>
       <c r="C25" t="n">
-        <v>0.312368</v>
+        <v>0.342887</v>
       </c>
       <c r="D25" t="n">
-        <v>0.416653</v>
+        <v>0.342416</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.448415</v>
+        <v>0.408853</v>
       </c>
       <c r="C26" t="n">
-        <v>0.31859</v>
+        <v>0.355275</v>
       </c>
       <c r="D26" t="n">
-        <v>0.412703</v>
+        <v>0.35067</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.446614</v>
+        <v>0.403755</v>
       </c>
       <c r="C27" t="n">
-        <v>0.318012</v>
+        <v>0.350772</v>
       </c>
       <c r="D27" t="n">
-        <v>0.417121</v>
+        <v>0.346219</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.449057</v>
+        <v>0.401825</v>
       </c>
       <c r="C28" t="n">
-        <v>0.320584</v>
+        <v>0.349244</v>
       </c>
       <c r="D28" t="n">
-        <v>0.416929</v>
+        <v>0.34857</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.448312</v>
+        <v>0.416869</v>
       </c>
       <c r="C29" t="n">
-        <v>0.313127</v>
+        <v>0.346037</v>
       </c>
       <c r="D29" t="n">
-        <v>0.416103</v>
+        <v>0.345199</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.4475</v>
+        <v>0.402101</v>
       </c>
       <c r="C30" t="n">
-        <v>0.320451</v>
+        <v>0.34505</v>
       </c>
       <c r="D30" t="n">
-        <v>0.41783</v>
+        <v>0.351984</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.449041</v>
+        <v>0.402515</v>
       </c>
       <c r="C31" t="n">
-        <v>0.318412</v>
+        <v>0.348807</v>
       </c>
       <c r="D31" t="n">
-        <v>0.418688</v>
+        <v>0.352588</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.448663</v>
+        <v>0.403948</v>
       </c>
       <c r="C32" t="n">
-        <v>0.315398</v>
+        <v>0.352696</v>
       </c>
       <c r="D32" t="n">
-        <v>0.420253</v>
+        <v>0.356392</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.450262</v>
+        <v>0.407916</v>
       </c>
       <c r="C33" t="n">
-        <v>0.326173</v>
+        <v>0.353468</v>
       </c>
       <c r="D33" t="n">
-        <v>0.420094</v>
+        <v>0.355654</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.450165</v>
+        <v>0.414418</v>
       </c>
       <c r="C34" t="n">
-        <v>0.323303</v>
+        <v>0.351387</v>
       </c>
       <c r="D34" t="n">
-        <v>0.424725</v>
+        <v>0.356451</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.446807</v>
+        <v>0.413797</v>
       </c>
       <c r="C35" t="n">
-        <v>0.32387</v>
+        <v>0.352015</v>
       </c>
       <c r="D35" t="n">
-        <v>0.430363</v>
+        <v>0.349814</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.449135</v>
+        <v>0.431366</v>
       </c>
       <c r="C36" t="n">
-        <v>0.332448</v>
+        <v>0.347207</v>
       </c>
       <c r="D36" t="n">
-        <v>0.430736</v>
+        <v>0.370785</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.453334</v>
+        <v>0.420019</v>
       </c>
       <c r="C37" t="n">
-        <v>0.343705</v>
+        <v>0.366372</v>
       </c>
       <c r="D37" t="n">
-        <v>0.418587</v>
+        <v>0.360928</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.465584</v>
+        <v>0.426799</v>
       </c>
       <c r="C38" t="n">
-        <v>0.344074</v>
+        <v>0.356573</v>
       </c>
       <c r="D38" t="n">
-        <v>0.417503</v>
+        <v>0.360122</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.464743</v>
+        <v>0.439419</v>
       </c>
       <c r="C39" t="n">
-        <v>0.345427</v>
+        <v>0.362174</v>
       </c>
       <c r="D39" t="n">
-        <v>0.419069</v>
+        <v>0.366231</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.46337</v>
+        <v>0.4372</v>
       </c>
       <c r="C40" t="n">
-        <v>0.344704</v>
+        <v>0.360642</v>
       </c>
       <c r="D40" t="n">
-        <v>0.423099</v>
+        <v>0.364355</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.464062</v>
+        <v>0.454215</v>
       </c>
       <c r="C41" t="n">
-        <v>0.348339</v>
+        <v>0.359997</v>
       </c>
       <c r="D41" t="n">
-        <v>0.422566</v>
+        <v>0.367096</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.46567</v>
+        <v>0.423871</v>
       </c>
       <c r="C42" t="n">
-        <v>0.348158</v>
+        <v>0.376352</v>
       </c>
       <c r="D42" t="n">
-        <v>0.422787</v>
+        <v>0.369752</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.465997</v>
+        <v>0.430918</v>
       </c>
       <c r="C43" t="n">
-        <v>0.351817</v>
+        <v>0.369049</v>
       </c>
       <c r="D43" t="n">
-        <v>0.423133</v>
+        <v>0.363392</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.466082</v>
+        <v>0.450032</v>
       </c>
       <c r="C44" t="n">
-        <v>0.351854</v>
+        <v>0.374803</v>
       </c>
       <c r="D44" t="n">
-        <v>0.425514</v>
+        <v>0.372869</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.465931</v>
+        <v>0.437712</v>
       </c>
       <c r="C45" t="n">
-        <v>0.354341</v>
+        <v>0.380482</v>
       </c>
       <c r="D45" t="n">
-        <v>0.423622</v>
+        <v>0.378048</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.466303</v>
+        <v>0.438206</v>
       </c>
       <c r="C46" t="n">
-        <v>0.355068</v>
+        <v>0.371447</v>
       </c>
       <c r="D46" t="n">
-        <v>0.426045</v>
+        <v>0.376328</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.468832</v>
+        <v>0.440929</v>
       </c>
       <c r="C47" t="n">
-        <v>0.358116</v>
+        <v>0.368997</v>
       </c>
       <c r="D47" t="n">
-        <v>0.427299</v>
+        <v>0.367517</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.464584</v>
+        <v>0.449115</v>
       </c>
       <c r="C48" t="n">
-        <v>0.359495</v>
+        <v>0.373266</v>
       </c>
       <c r="D48" t="n">
-        <v>0.430784</v>
+        <v>0.389032</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.467069</v>
+        <v>0.455511</v>
       </c>
       <c r="C49" t="n">
-        <v>0.359653</v>
+        <v>0.373517</v>
       </c>
       <c r="D49" t="n">
-        <v>0.430306</v>
+        <v>0.38347</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.469066</v>
+        <v>0.441625</v>
       </c>
       <c r="C50" t="n">
-        <v>0.358356</v>
+        <v>0.379689</v>
       </c>
       <c r="D50" t="n">
-        <v>0.439085</v>
+        <v>0.38105</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.471293</v>
+        <v>0.443624</v>
       </c>
       <c r="C51" t="n">
-        <v>0.368454</v>
+        <v>0.387251</v>
       </c>
       <c r="D51" t="n">
-        <v>0.450564</v>
+        <v>0.405986</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.471594</v>
+        <v>0.460254</v>
       </c>
       <c r="C52" t="n">
-        <v>0.367273</v>
+        <v>0.396012</v>
       </c>
       <c r="D52" t="n">
-        <v>0.45526</v>
+        <v>0.401866</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.529914</v>
+        <v>0.498818</v>
       </c>
       <c r="C53" t="n">
-        <v>0.431403</v>
+        <v>0.404266</v>
       </c>
       <c r="D53" t="n">
-        <v>0.458008</v>
+        <v>0.411726</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.517724</v>
+        <v>0.502565</v>
       </c>
       <c r="C54" t="n">
-        <v>0.418912</v>
+        <v>0.419273</v>
       </c>
       <c r="D54" t="n">
-        <v>0.457362</v>
+        <v>0.406243</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.521634</v>
+        <v>0.495978</v>
       </c>
       <c r="C55" t="n">
-        <v>0.429314</v>
+        <v>0.411052</v>
       </c>
       <c r="D55" t="n">
-        <v>0.459338</v>
+        <v>0.422614</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.5199</v>
+        <v>0.501023</v>
       </c>
       <c r="C56" t="n">
-        <v>0.434569</v>
+        <v>0.418585</v>
       </c>
       <c r="D56" t="n">
-        <v>0.459019</v>
+        <v>0.404615</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.531453</v>
+        <v>0.494857</v>
       </c>
       <c r="C57" t="n">
-        <v>0.438898</v>
+        <v>0.417298</v>
       </c>
       <c r="D57" t="n">
-        <v>0.466371</v>
+        <v>0.414023</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.525637</v>
+        <v>0.494816</v>
       </c>
       <c r="C58" t="n">
-        <v>0.442034</v>
+        <v>0.415866</v>
       </c>
       <c r="D58" t="n">
-        <v>0.472765</v>
+        <v>0.406836</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.531637</v>
+        <v>0.482354</v>
       </c>
       <c r="C59" t="n">
-        <v>0.439335</v>
+        <v>0.421863</v>
       </c>
       <c r="D59" t="n">
-        <v>0.467797</v>
+        <v>0.412798</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.524864</v>
+        <v>0.497167</v>
       </c>
       <c r="C60" t="n">
-        <v>0.444103</v>
+        <v>0.417806</v>
       </c>
       <c r="D60" t="n">
-        <v>0.472816</v>
+        <v>0.413148</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.523625</v>
+        <v>0.511311</v>
       </c>
       <c r="C61" t="n">
-        <v>0.450909</v>
+        <v>0.420544</v>
       </c>
       <c r="D61" t="n">
-        <v>0.473065</v>
+        <v>0.419654</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.531037</v>
+        <v>0.496075</v>
       </c>
       <c r="C62" t="n">
-        <v>0.441662</v>
+        <v>0.430334</v>
       </c>
       <c r="D62" t="n">
-        <v>0.46281</v>
+        <v>0.422513</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.519579</v>
+        <v>0.491544</v>
       </c>
       <c r="C63" t="n">
-        <v>0.450313</v>
+        <v>0.428113</v>
       </c>
       <c r="D63" t="n">
-        <v>0.485523</v>
+        <v>0.431877</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.511807</v>
+        <v>0.509414</v>
       </c>
       <c r="C64" t="n">
-        <v>0.443663</v>
+        <v>0.426954</v>
       </c>
       <c r="D64" t="n">
-        <v>0.476799</v>
+        <v>0.434212</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.526483</v>
+        <v>0.499784</v>
       </c>
       <c r="C65" t="n">
-        <v>0.457643</v>
+        <v>0.435974</v>
       </c>
       <c r="D65" t="n">
-        <v>0.492519</v>
+        <v>0.432774</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.532081</v>
+        <v>0.499845</v>
       </c>
       <c r="C66" t="n">
-        <v>0.469962</v>
+        <v>0.454548</v>
       </c>
       <c r="D66" t="n">
-        <v>0.520035</v>
+        <v>0.532929</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.629609</v>
+        <v>0.69218</v>
       </c>
       <c r="C67" t="n">
-        <v>0.5147080000000001</v>
+        <v>0.566282</v>
       </c>
       <c r="D67" t="n">
-        <v>0.5117699999999999</v>
+        <v>0.543803</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.59063</v>
+        <v>0.701982</v>
       </c>
       <c r="C68" t="n">
-        <v>0.488212</v>
+        <v>0.56562</v>
       </c>
       <c r="D68" t="n">
-        <v>0.510367</v>
+        <v>0.5426339999999999</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.610867</v>
+        <v>0.689034</v>
       </c>
       <c r="C69" t="n">
-        <v>0.5019130000000001</v>
+        <v>0.555716</v>
       </c>
       <c r="D69" t="n">
-        <v>0.503825</v>
+        <v>0.536818</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.605463</v>
+        <v>0.685137</v>
       </c>
       <c r="C70" t="n">
-        <v>0.505151</v>
+        <v>0.568109</v>
       </c>
       <c r="D70" t="n">
-        <v>0.524504</v>
+        <v>0.553251</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.601532</v>
+        <v>0.711475</v>
       </c>
       <c r="C71" t="n">
-        <v>0.5154840000000001</v>
+        <v>0.56082</v>
       </c>
       <c r="D71" t="n">
-        <v>0.514608</v>
+        <v>0.538533</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.581054</v>
+        <v>0.691899</v>
       </c>
       <c r="C72" t="n">
-        <v>0.515425</v>
+        <v>0.5534790000000001</v>
       </c>
       <c r="D72" t="n">
-        <v>0.517687</v>
+        <v>0.534076</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.636176</v>
+        <v>0.706307</v>
       </c>
       <c r="C73" t="n">
-        <v>0.51901</v>
+        <v>0.567183</v>
       </c>
       <c r="D73" t="n">
-        <v>0.5379</v>
+        <v>0.543286</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.641509</v>
+        <v>0.685128</v>
       </c>
       <c r="C74" t="n">
-        <v>0.522787</v>
+        <v>0.559169</v>
       </c>
       <c r="D74" t="n">
-        <v>0.53604</v>
+        <v>0.533524</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.59928</v>
+        <v>0.673924</v>
       </c>
       <c r="C75" t="n">
-        <v>0.553378</v>
+        <v>0.576413</v>
       </c>
       <c r="D75" t="n">
-        <v>0.555802</v>
+        <v>0.540713</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.670776</v>
+        <v>0.670826</v>
       </c>
       <c r="C76" t="n">
-        <v>0.573263</v>
+        <v>0.573133</v>
       </c>
       <c r="D76" t="n">
-        <v>0.5686099999999999</v>
+        <v>0.570835</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.670259</v>
+        <v>0.697361</v>
       </c>
       <c r="C77" t="n">
-        <v>0.552472</v>
+        <v>0.569549</v>
       </c>
       <c r="D77" t="n">
-        <v>0.586707</v>
+        <v>0.556657</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.633836</v>
+        <v>0.681194</v>
       </c>
       <c r="C78" t="n">
-        <v>0.571878</v>
+        <v>0.562229</v>
       </c>
       <c r="D78" t="n">
-        <v>0.607946</v>
+        <v>0.556111</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.690036</v>
+        <v>0.675894</v>
       </c>
       <c r="C79" t="n">
-        <v>0.605818</v>
+        <v>0.566495</v>
       </c>
       <c r="D79" t="n">
-        <v>0.589108</v>
+        <v>0.575458</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.644171</v>
+        <v>0.687225</v>
       </c>
       <c r="C80" t="n">
-        <v>0.552724</v>
+        <v>0.5889489999999999</v>
       </c>
       <c r="D80" t="n">
-        <v>0.639171</v>
+        <v>0.831719</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>1.0336</v>
+        <v>1.02147</v>
       </c>
       <c r="C81" t="n">
-        <v>0.721498</v>
+        <v>0.83618</v>
       </c>
       <c r="D81" t="n">
-        <v>0.706481</v>
+        <v>0.798377</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.901293</v>
+        <v>1.04205</v>
       </c>
       <c r="C82" t="n">
-        <v>0.688739</v>
+        <v>0.857321</v>
       </c>
       <c r="D82" t="n">
-        <v>0.68689</v>
+        <v>0.8046720000000001</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>1.11386</v>
+        <v>1.03696</v>
       </c>
       <c r="C83" t="n">
-        <v>0.794122</v>
+        <v>0.861086</v>
       </c>
       <c r="D83" t="n">
-        <v>0.733324</v>
+        <v>0.80724</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>1.04079</v>
+        <v>0.998448</v>
       </c>
       <c r="C84" t="n">
-        <v>0.810935</v>
+        <v>0.8735309999999999</v>
       </c>
       <c r="D84" t="n">
-        <v>0.851893</v>
+        <v>0.819262</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>1.15588</v>
+        <v>1.00209</v>
       </c>
       <c r="C85" t="n">
-        <v>0.822362</v>
+        <v>0.865583</v>
       </c>
       <c r="D85" t="n">
-        <v>0.789426</v>
+        <v>0.806061</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>1.21996</v>
+        <v>1.0139</v>
       </c>
       <c r="C86" t="n">
-        <v>0.815653</v>
+        <v>0.865003</v>
       </c>
       <c r="D86" t="n">
-        <v>0.745664</v>
+        <v>0.796044</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>1.11084</v>
+        <v>1.0016</v>
       </c>
       <c r="C87" t="n">
-        <v>0.891167</v>
+        <v>0.852445</v>
       </c>
       <c r="D87" t="n">
-        <v>0.810077</v>
+        <v>0.809984</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.948864</v>
+        <v>1.03016</v>
       </c>
       <c r="C88" t="n">
-        <v>0.740178</v>
+        <v>0.864406</v>
       </c>
       <c r="D88" t="n">
-        <v>0.837721</v>
+        <v>0.801378</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>1.07977</v>
+        <v>1.02061</v>
       </c>
       <c r="C89" t="n">
-        <v>0.711878</v>
+        <v>0.8686199999999999</v>
       </c>
       <c r="D89" t="n">
-        <v>0.784712</v>
+        <v>0.834519</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>1.08645</v>
+        <v>0.996892</v>
       </c>
       <c r="C90" t="n">
-        <v>0.753037</v>
+        <v>0.8535509999999999</v>
       </c>
       <c r="D90" t="n">
-        <v>0.767423</v>
+        <v>0.823307</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>1.02488</v>
+        <v>1.01964</v>
       </c>
       <c r="C91" t="n">
-        <v>0.815859</v>
+        <v>0.859726</v>
       </c>
       <c r="D91" t="n">
-        <v>0.7839699999999999</v>
+        <v>0.797347</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>1.1432</v>
+        <v>0.98817</v>
       </c>
       <c r="C92" t="n">
-        <v>0.807982</v>
+        <v>0.862406</v>
       </c>
       <c r="D92" t="n">
-        <v>0.79191</v>
+        <v>0.821556</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>1.03477</v>
+        <v>0.986795</v>
       </c>
       <c r="C93" t="n">
-        <v>0.805748</v>
+        <v>0.928324</v>
       </c>
       <c r="D93" t="n">
-        <v>0.8080079999999999</v>
+        <v>0.8625620000000001</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>1.07101</v>
+        <v>1.0073</v>
       </c>
       <c r="C94" t="n">
-        <v>0.789802</v>
+        <v>0.902735</v>
       </c>
       <c r="D94" t="n">
-        <v>1.16339</v>
+        <v>1.13639</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>1.47263</v>
+        <v>1.39619</v>
       </c>
       <c r="C95" t="n">
-        <v>1.19433</v>
+        <v>1.18568</v>
       </c>
       <c r="D95" t="n">
-        <v>0.994488</v>
+        <v>1.13592</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>1.38988</v>
+        <v>1.36367</v>
       </c>
       <c r="C96" t="n">
-        <v>1.03312</v>
+        <v>1.17328</v>
       </c>
       <c r="D96" t="n">
-        <v>0.860654</v>
+        <v>1.20154</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>1.23424</v>
+        <v>1.3597</v>
       </c>
       <c r="C97" t="n">
-        <v>0.852247</v>
+        <v>1.21063</v>
       </c>
       <c r="D97" t="n">
-        <v>0.92025</v>
+        <v>1.14008</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>1.24236</v>
+        <v>1.34867</v>
       </c>
       <c r="C98" t="n">
-        <v>0.8142160000000001</v>
+        <v>1.20568</v>
       </c>
       <c r="D98" t="n">
-        <v>0.82633</v>
+        <v>1.18067</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>1.12497</v>
+        <v>1.38981</v>
       </c>
       <c r="C99" t="n">
-        <v>0.899142</v>
+        <v>1.22755</v>
       </c>
       <c r="D99" t="n">
-        <v>0.8544040000000001</v>
+        <v>1.19729</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>1.3087</v>
+        <v>1.4093</v>
       </c>
       <c r="C100" t="n">
-        <v>1.05363</v>
+        <v>1.21698</v>
       </c>
       <c r="D100" t="n">
-        <v>0.976472</v>
+        <v>1.16621</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>1.22234</v>
+        <v>1.37924</v>
       </c>
       <c r="C101" t="n">
-        <v>0.981681</v>
+        <v>1.2368</v>
       </c>
       <c r="D101" t="n">
-        <v>1.11135</v>
+        <v>1.16331</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>1.34938</v>
+        <v>1.38065</v>
       </c>
       <c r="C102" t="n">
-        <v>0.990999</v>
+        <v>1.22017</v>
       </c>
       <c r="D102" t="n">
-        <v>0.960966</v>
+        <v>1.18162</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>1.38041</v>
+        <v>1.36599</v>
       </c>
       <c r="C103" t="n">
-        <v>1.01103</v>
+        <v>1.18607</v>
       </c>
       <c r="D103" t="n">
-        <v>0.973335</v>
+        <v>1.21904</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>1.43223</v>
+        <v>1.38056</v>
       </c>
       <c r="C104" t="n">
-        <v>1.19716</v>
+        <v>1.22047</v>
       </c>
       <c r="D104" t="n">
-        <v>0.9525439999999999</v>
+        <v>1.20896</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4690,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>1.30464</v>
+        <v>1.39649</v>
       </c>
       <c r="C105" t="n">
-        <v>0.852676</v>
+        <v>1.19111</v>
       </c>
       <c r="D105" t="n">
-        <v>0.976349</v>
+        <v>1.16833</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>1.47858</v>
+        <v>1.36315</v>
       </c>
       <c r="C106" t="n">
-        <v>1.14184</v>
+        <v>1.20023</v>
       </c>
       <c r="D106" t="n">
-        <v>1.09774</v>
+        <v>1.20428</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4718,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>1.36213</v>
+        <v>1.33665</v>
       </c>
       <c r="C107" t="n">
-        <v>0.9826510000000001</v>
+        <v>1.235</v>
       </c>
       <c r="D107" t="n">
-        <v>1.02446</v>
+        <v>1.21289</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4732,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>1.36432</v>
+        <v>1.41175</v>
       </c>
       <c r="C108" t="n">
-        <v>0.962769</v>
+        <v>1.22294</v>
       </c>
       <c r="D108" t="n">
-        <v>1.32087</v>
+        <v>1.38179</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4746,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>1.27377</v>
+        <v>1.38737</v>
       </c>
       <c r="C109" t="n">
-        <v>0.931006</v>
+        <v>1.22576</v>
       </c>
       <c r="D109" t="n">
-        <v>1.26004</v>
+        <v>1.41042</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4760,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>1.67244</v>
+        <v>1.75936</v>
       </c>
       <c r="C110" t="n">
-        <v>1.41309</v>
+        <v>1.43002</v>
       </c>
       <c r="D110" t="n">
-        <v>1.44702</v>
+        <v>1.39242</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4774,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>1.80909</v>
+        <v>1.78739</v>
       </c>
       <c r="C111" t="n">
-        <v>1.27972</v>
+        <v>1.42371</v>
       </c>
       <c r="D111" t="n">
-        <v>1.29649</v>
+        <v>1.40845</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4788,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>1.8189</v>
+        <v>1.78629</v>
       </c>
       <c r="C112" t="n">
-        <v>1.38197</v>
+        <v>1.47</v>
       </c>
       <c r="D112" t="n">
-        <v>1.34454</v>
+        <v>1.44169</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4802,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>1.70915</v>
+        <v>1.74018</v>
       </c>
       <c r="C113" t="n">
-        <v>1.4169</v>
+        <v>1.4481</v>
       </c>
       <c r="D113" t="n">
-        <v>1.44869</v>
+        <v>1.44085</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4816,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>1.94593</v>
+        <v>1.74087</v>
       </c>
       <c r="C114" t="n">
-        <v>1.47297</v>
+        <v>1.44882</v>
       </c>
       <c r="D114" t="n">
-        <v>1.49371</v>
+        <v>1.453</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4830,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>1.77993</v>
+        <v>1.77404</v>
       </c>
       <c r="C115" t="n">
-        <v>1.38836</v>
+        <v>1.44094</v>
       </c>
       <c r="D115" t="n">
-        <v>1.43488</v>
+        <v>1.41614</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4844,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>1.74594</v>
+        <v>1.76522</v>
       </c>
       <c r="C116" t="n">
-        <v>1.40836</v>
+        <v>1.46093</v>
       </c>
       <c r="D116" t="n">
-        <v>1.38186</v>
+        <v>1.46303</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4858,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>1.74157</v>
+        <v>1.75327</v>
       </c>
       <c r="C117" t="n">
-        <v>1.49231</v>
+        <v>1.45255</v>
       </c>
       <c r="D117" t="n">
-        <v>1.48312</v>
+        <v>1.44495</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4872,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>1.83702</v>
+        <v>1.74503</v>
       </c>
       <c r="C118" t="n">
-        <v>1.43901</v>
+        <v>1.46734</v>
       </c>
       <c r="D118" t="n">
-        <v>1.40771</v>
+        <v>1.47349</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4886,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>1.85374</v>
+        <v>1.76088</v>
       </c>
       <c r="C119" t="n">
-        <v>1.49915</v>
+        <v>1.48555</v>
       </c>
       <c r="D119" t="n">
-        <v>1.33863</v>
+        <v>1.48104</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4900,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>1.60644</v>
+        <v>1.72427</v>
       </c>
       <c r="C120" t="n">
-        <v>1.45921</v>
+        <v>1.50186</v>
       </c>
       <c r="D120" t="n">
-        <v>1.40599</v>
+        <v>1.47101</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4914,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>1.75515</v>
+        <v>1.75168</v>
       </c>
       <c r="C121" t="n">
-        <v>1.40975</v>
+        <v>1.48946</v>
       </c>
       <c r="D121" t="n">
-        <v>1.37065</v>
+        <v>1.46556</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4928,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>1.613</v>
+        <v>1.74817</v>
       </c>
       <c r="C122" t="n">
-        <v>1.44116</v>
+        <v>1.52464</v>
       </c>
       <c r="D122" t="n">
-        <v>1.38012</v>
+        <v>1.47768</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4942,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>1.79738</v>
+        <v>1.79672</v>
       </c>
       <c r="C123" t="n">
-        <v>1.494</v>
+        <v>1.54419</v>
       </c>
       <c r="D123" t="n">
-        <v>1.52762</v>
+        <v>1.58283</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4956,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>2.0667</v>
+        <v>2.14118</v>
       </c>
       <c r="C124" t="n">
-        <v>1.56114</v>
+        <v>1.61354</v>
       </c>
       <c r="D124" t="n">
-        <v>1.53282</v>
+        <v>1.61078</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4970,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>2.15654</v>
+        <v>2.14547</v>
       </c>
       <c r="C125" t="n">
-        <v>1.51892</v>
+        <v>1.62292</v>
       </c>
       <c r="D125" t="n">
-        <v>1.50539</v>
+        <v>1.58897</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4984,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>2.1016</v>
+        <v>2.14432</v>
       </c>
       <c r="C126" t="n">
-        <v>1.53913</v>
+        <v>1.62698</v>
       </c>
       <c r="D126" t="n">
-        <v>1.5286</v>
+        <v>1.58707</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4998,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>2.04007</v>
+        <v>2.13733</v>
       </c>
       <c r="C127" t="n">
-        <v>1.48765</v>
+        <v>1.64078</v>
       </c>
       <c r="D127" t="n">
-        <v>1.41485</v>
+        <v>1.60565</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5012,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>1.9694</v>
+        <v>2.13182</v>
       </c>
       <c r="C128" t="n">
-        <v>1.62426</v>
+        <v>1.65869</v>
       </c>
       <c r="D128" t="n">
-        <v>1.56525</v>
+        <v>1.62643</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5026,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>1.91383</v>
+        <v>2.13054</v>
       </c>
       <c r="C129" t="n">
-        <v>1.47779</v>
+        <v>1.64912</v>
       </c>
       <c r="D129" t="n">
-        <v>1.61635</v>
+        <v>1.60101</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5040,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>2.12536</v>
+        <v>2.13357</v>
       </c>
       <c r="C130" t="n">
-        <v>1.69039</v>
+        <v>1.65975</v>
       </c>
       <c r="D130" t="n">
-        <v>1.53785</v>
+        <v>1.62336</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5054,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>2.14749</v>
+        <v>2.14053</v>
       </c>
       <c r="C131" t="n">
-        <v>1.6588</v>
+        <v>1.66345</v>
       </c>
       <c r="D131" t="n">
-        <v>1.63848</v>
+        <v>1.63262</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5068,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>2.09255</v>
+        <v>2.14386</v>
       </c>
       <c r="C132" t="n">
-        <v>1.6882</v>
+        <v>1.66609</v>
       </c>
       <c r="D132" t="n">
-        <v>1.66942</v>
+        <v>1.64426</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5082,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>2.0659</v>
+        <v>2.15848</v>
       </c>
       <c r="C133" t="n">
-        <v>1.65837</v>
+        <v>1.66747</v>
       </c>
       <c r="D133" t="n">
-        <v>1.66319</v>
+        <v>1.63184</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5096,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>2.16801</v>
+        <v>2.14878</v>
       </c>
       <c r="C134" t="n">
-        <v>1.70005</v>
+        <v>1.68428</v>
       </c>
       <c r="D134" t="n">
-        <v>1.70113</v>
+        <v>1.66413</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5110,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>2.16596</v>
+        <v>2.14945</v>
       </c>
       <c r="C135" t="n">
-        <v>1.70109</v>
+        <v>1.68983</v>
       </c>
       <c r="D135" t="n">
-        <v>1.60507</v>
+        <v>1.65803</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5124,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>1.97251</v>
+        <v>2.15171</v>
       </c>
       <c r="C136" t="n">
-        <v>1.6373</v>
+        <v>1.70671</v>
       </c>
       <c r="D136" t="n">
-        <v>1.6861</v>
+        <v>1.69747</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5138,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>2.10601</v>
+        <v>2.1574</v>
       </c>
       <c r="C137" t="n">
-        <v>1.71516</v>
+        <v>1.72232</v>
       </c>
       <c r="D137" t="n">
-        <v>1.68919</v>
+        <v>1.81815</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5152,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>2.44398</v>
+        <v>2.4912</v>
       </c>
       <c r="C138" t="n">
-        <v>1.72727</v>
+        <v>1.76582</v>
       </c>
       <c r="D138" t="n">
-        <v>1.75185</v>
+        <v>1.83446</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5166,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>2.42509</v>
+        <v>2.53536</v>
       </c>
       <c r="C139" t="n">
-        <v>1.74791</v>
+        <v>1.76993</v>
       </c>
       <c r="D139" t="n">
-        <v>1.72216</v>
+        <v>1.83763</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5180,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>2.38068</v>
+        <v>2.52736</v>
       </c>
       <c r="C140" t="n">
-        <v>1.75101</v>
+        <v>1.76465</v>
       </c>
       <c r="D140" t="n">
-        <v>1.68498</v>
+        <v>1.78416</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5194,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>2.42836</v>
+        <v>2.53471</v>
       </c>
       <c r="C141" t="n">
-        <v>1.78136</v>
+        <v>1.86651</v>
       </c>
       <c r="D141" t="n">
-        <v>1.75505</v>
+        <v>1.76991</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5208,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>2.43408</v>
+        <v>2.50842</v>
       </c>
       <c r="C142" t="n">
-        <v>1.7567</v>
+        <v>1.78006</v>
       </c>
       <c r="D142" t="n">
-        <v>1.74829</v>
+        <v>1.75508</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5222,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>2.42118</v>
+        <v>2.46867</v>
       </c>
       <c r="C143" t="n">
-        <v>1.77584</v>
+        <v>1.79855</v>
       </c>
       <c r="D143" t="n">
-        <v>1.79765</v>
+        <v>1.77599</v>
       </c>
     </row>
   </sheetData>
